--- a/Performance-test.xlsx
+++ b/Performance-test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\apache-jmeter-5.6.3\apache-jmeter-5.6.3\bin\B14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C92F4F-7195-46BF-99DF-0A1FE051A3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E58829-7FFA-4FAD-ACEC-A9BCC171C6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D58360AE-13CC-4580-B86D-97FA6CCD6426}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D58360AE-13CC-4580-B86D-97FA6CCD6426}"/>
   </bookViews>
   <sheets>
     <sheet name="Load Test" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Test Name</t>
   </si>
@@ -151,34 +151,43 @@
     <t>20000</t>
   </si>
   <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>22000</t>
-  </si>
-  <si>
-    <t>0.3%</t>
-  </si>
-  <si>
     <t>Test-5</t>
   </si>
   <si>
     <t>25000</t>
   </si>
   <si>
-    <t>0.51%</t>
-  </si>
-  <si>
     <t>Stress Test Strategy</t>
   </si>
   <si>
     <t>Bottleneck point</t>
   </si>
   <si>
-    <t>32.77</t>
-  </si>
-  <si>
     <t>2.8</t>
+  </si>
+  <si>
+    <t>23000</t>
+  </si>
+  <si>
+    <t>0.01%</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>0.82%</t>
+  </si>
+  <si>
+    <t>Test-6</t>
+  </si>
+  <si>
+    <t>27000</t>
+  </si>
+  <si>
+    <t>0.90%</t>
+  </si>
+  <si>
+    <t>30.05</t>
   </si>
 </sst>
 </file>
@@ -259,24 +268,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -289,6 +283,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1271F40-749A-491D-A790-E31F8E3B8997}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -620,159 +626,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -786,227 +792,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488B9838-0EB4-4C99-825B-EBD14AF10558}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection sqref="A1:F11"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.90625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="19.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.90625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="73" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
